--- a/data/gold_standard_performance.xlsx
+++ b/data/gold_standard_performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,21 @@
           <t>Too good</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Appropriate (raw)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Too bad (raw)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Too good (raw)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -473,6 +488,15 @@
       <c r="E2" t="n">
         <v>0.09605263157894736</v>
       </c>
+      <c r="F2" t="n">
+        <v>5.421052631578948</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12.6578947368421</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.921052631578947</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,6 +516,9 @@
       <c r="E3" t="n">
         <v>0.1036121673003802</v>
       </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -511,6 +538,9 @@
       <c r="E4" t="n">
         <v>0.097538742023701</v>
       </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -530,6 +560,9 @@
       <c r="E5" t="n">
         <v>0.1082621082621083</v>
       </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -549,6 +582,9 @@
       <c r="E6" t="n">
         <v>0.1062925170068027</v>
       </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
